--- a/splunk_certification_path/Splunk Certification Details.xlsx
+++ b/splunk_certification_path/Splunk Certification Details.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Splunk Fundamentals 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Splunk Fundamentals 3" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="149">
   <si>
     <t>Course Name</t>
   </si>
@@ -28,13 +29,26 @@
     <t>Video Link</t>
   </si>
   <si>
+    <t>Splunk Fundamentals 3</t>
+  </si>
+  <si>
     <t>Splunk Fundamentals 1</t>
   </si>
   <si>
+    <t>Splunk Core Certified Consultant</t>
+  </si>
+  <si>
     <t>Splunk Core Certified User</t>
   </si>
   <si>
+    <t>Module 1 – Exploring Statistical Commands</t>
+  </si>
+  <si>
     <t>Module 1 – Introduction</t>
+  </si>
+  <si>
+    <t>Performing statistical analysis with functions 
+of the stat command</t>
   </si>
   <si>
     <t xml:space="preserve">Overview of Buttercup Games Inc.
@@ -48,17 +62,45 @@
 Power User </t>
   </si>
   <si>
+    <t>Using fieldsummary</t>
+  </si>
+  <si>
     <t>Module 2 – What is Splunk?</t>
   </si>
   <si>
     <t>Splunk components</t>
   </si>
   <si>
+    <t>Using appendpipe</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Vjg2UMDuvnA</t>
+  </si>
+  <si>
     <t>https://youtu.be/a-_LHJU07VU</t>
+  </si>
+  <si>
+    <t>Using eventstats</t>
+  </si>
+  <si>
+    <t>https://youtu.be/oD2PIjtLv74
+https://youtu.be/VbdewD-JBr0</t>
   </si>
   <si>
     <t xml:space="preserve">Splunk Enterprise 
 Certified Admin </t>
+  </si>
+  <si>
+    <t>Using streamstats</t>
+  </si>
+  <si>
+    <t>Module 2 – Exploring eval Command Functions</t>
+  </si>
+  <si>
+    <t>Using conversion functions</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZkMeeFjDiPM</t>
   </si>
   <si>
     <t>Installing Splunk</t>
@@ -95,10 +137,19 @@
 Security Certified Admin</t>
   </si>
   <si>
+    <t>Using data and time functions</t>
+  </si>
+  <si>
     <t>Define Splunk Apps</t>
   </si>
   <si>
+    <t>Using string functions</t>
+  </si>
+  <si>
     <t>https://youtu.be/1lkhVN9DGJU</t>
+  </si>
+  <si>
+    <t>Using comparison and conditional functions</t>
   </si>
   <si>
     <t xml:space="preserve">Splunk IT Service 
@@ -108,13 +159,16 @@
     <t>Customizing your user settings</t>
   </si>
   <si>
-    <t>Splunk Core Certified Consultant</t>
+    <t>Using informational functions</t>
   </si>
   <si>
     <t>Learn basic navigation in Splunk</t>
   </si>
   <si>
     <t>https://youtu.be/Xms0DsuIfq0</t>
+  </si>
+  <si>
+    <t>Using statistical functions</t>
   </si>
   <si>
     <t>Module 4 – Basic Searching</t>
@@ -147,6 +201,9 @@
 </t>
   </si>
   <si>
+    <t>Using mathematical functions</t>
+  </si>
+  <si>
     <t>Save search results</t>
   </si>
   <si>
@@ -168,6 +225,9 @@
   <si>
     <t>Review basic search commands and general search
 practices</t>
+  </si>
+  <si>
+    <t>Using cryptographic functions</t>
   </si>
   <si>
     <t>Examine the search pipeline</t>
@@ -194,10 +254,28 @@
     <t>The top command</t>
   </si>
   <si>
+    <t>Module 3 – Exploring Lookups</t>
+  </si>
+  <si>
+    <t>Including and excluding events based on lookup values</t>
+  </si>
+  <si>
     <t>The rare command</t>
   </si>
   <si>
+    <t>Using KV Store lookups</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1IYezUcNGPY</t>
+  </si>
+  <si>
+    <t>Using external lookups</t>
+  </si>
+  <si>
     <t>The stats command</t>
+  </si>
+  <si>
+    <t>https://youtu.be/DXb5p_EQb_E</t>
   </si>
   <si>
     <t xml:space="preserve">Module 8 – Creating Reports and 
@@ -212,27 +290,125 @@
     <t>https://youtu.be/cdWXKBzPZ78</t>
   </si>
   <si>
+    <t>Using geospatial lookups</t>
+  </si>
+  <si>
+    <t>Using database lookups</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ipi3wJThDic</t>
+  </si>
+  <si>
     <t>Edit reports</t>
+  </si>
+  <si>
+    <t>Understanding best practices for lookups</t>
+  </si>
+  <si>
+    <t>Module 4 – Exploring Alerts</t>
+  </si>
+  <si>
+    <t>Referencing lookups in alerts</t>
+  </si>
+  <si>
+    <t>Outputting alert results to a lookup</t>
+  </si>
+  <si>
+    <t>https://youtu.be/r8g9kRFKvio</t>
   </si>
   <si>
     <t>Create reports that include visualizations such as charts and
 tables</t>
   </si>
   <si>
+    <t>Logging and indexing searchable alert events</t>
+  </si>
+  <si>
+    <t>Using a webhook alert action</t>
+  </si>
+  <si>
+    <t>https://youtu.be/IBgwfJMsXhw</t>
+  </si>
+  <si>
+    <t>Module 5 – Advanced Field Creation and Management</t>
+  </si>
+  <si>
+    <t>Using regex</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LDZ0PKSiuow
+https://youtu.be/ppSxpzK2sj8</t>
+  </si>
+  <si>
+    <t>Using the erex command</t>
+  </si>
+  <si>
     <t xml:space="preserve">Create a dashboard
 </t>
   </si>
   <si>
+    <t>Using the rex command</t>
+  </si>
+  <si>
+    <t>Identifying regex best practices</t>
+  </si>
+  <si>
+    <t>Module 6 – Working with Self-Describing Data and Files</t>
+  </si>
+  <si>
+    <t>Using the spath command</t>
+  </si>
+  <si>
+    <t>https://youtu.be/C3k_v0lzmaM</t>
+  </si>
+  <si>
+    <t>Using the eval command with the spath function</t>
+  </si>
+  <si>
     <t>Add a report to a dashboard</t>
   </si>
   <si>
+    <t>Extracting fields from table-formatted events with multikv</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8kWgDVZZ0GQ</t>
+  </si>
+  <si>
     <t>Edit a dashboard</t>
+  </si>
+  <si>
+    <t>Module 7 – Advanced Search Macros</t>
+  </si>
+  <si>
+    <t>Using nested search macros</t>
+  </si>
+  <si>
+    <t>https://youtu.be/g4v9YZ0sPBE</t>
+  </si>
+  <si>
+    <t>Previewing search macros before executing</t>
+  </si>
+  <si>
+    <t>Using tags and event types in search macros</t>
+  </si>
+  <si>
+    <t>Module 8 – Using Acceleration Options: Reports and 
+Summary Indexing</t>
+  </si>
+  <si>
+    <t>Using report acceleration</t>
+  </si>
+  <si>
+    <t>Using summary indexing</t>
   </si>
   <si>
     <t>Module 9 – Datasets and the 
 Common Information Model</t>
   </si>
   <si>
+    <t>https://youtu.be/joZ3jokt9qs</t>
+  </si>
+  <si>
     <t>Naming conventions</t>
   </si>
   <si>
@@ -249,13 +425,29 @@
     <t xml:space="preserve">Describe lookups </t>
   </si>
   <si>
-    <t>https://youtu.be/1IYezUcNGPY</t>
+    <t>Module 9 – Using Acceleration Options: Data Models 
+and tsidx Files</t>
+  </si>
+  <si>
+    <t>Exploring data models using the datamodel command</t>
+  </si>
+  <si>
+    <t>https://youtu.be/N3FL6rawDLQ</t>
+  </si>
+  <si>
+    <t>Using data model acceleration</t>
   </si>
   <si>
     <t>Create a lookup file and create a lookup definition</t>
   </si>
   <si>
     <t>Configure an automatic lookup</t>
+  </si>
+  <si>
+    <t>Working with tsidx files using the tstats command</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NLPlIiHS1OU</t>
   </si>
   <si>
     <t>Module 11 – Creating Scheduled Reports 
@@ -292,9 +484,6 @@
   </si>
   <si>
     <t>Understand the relationship between data models and pivot</t>
-  </si>
-  <si>
-    <t>https://youtu.be/N3FL6rawDLQ</t>
   </si>
   <si>
     <t>Select a data model object</t>
@@ -322,16 +511,17 @@
     <font>
       <b/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF303030"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -385,6 +575,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -618,380 +812,380 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="4" t="s">
-        <v>33</v>
+      <c r="D11" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="4" t="s">
-        <v>34</v>
+      <c r="D12" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="4" t="s">
-        <v>35</v>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14">
-      <c r="D14" s="4" t="s">
-        <v>36</v>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15">
-      <c r="D15" s="4" t="s">
-        <v>37</v>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="4" t="s">
-        <v>38</v>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="4" t="s">
-        <v>39</v>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18">
-      <c r="D18" s="4" t="s">
-        <v>40</v>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>42</v>
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20">
-      <c r="D20" s="4" t="s">
-        <v>43</v>
+      <c r="D20" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="4" t="s">
-        <v>44</v>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23">
-      <c r="D23" s="4" t="s">
-        <v>47</v>
+      <c r="D23" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24">
-      <c r="D24" s="4" t="s">
-        <v>48</v>
+      <c r="D24" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25">
-      <c r="D25" s="4" t="s">
-        <v>49</v>
+      <c r="D25" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26">
-      <c r="D26" s="4" t="s">
-        <v>50</v>
+      <c r="D26" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>52</v>
+      <c r="C27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28">
-      <c r="D28" s="4" t="s">
-        <v>53</v>
+      <c r="D28" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29">
-      <c r="D29" s="4" t="s">
-        <v>54</v>
+      <c r="D29" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>56</v>
+      <c r="C30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" s="4" t="s">
-        <v>58</v>
+      <c r="D31" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" s="4" t="s">
-        <v>59</v>
+      <c r="D32" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" s="4" t="s">
-        <v>60</v>
+      <c r="D33" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" s="4" t="s">
-        <v>61</v>
+      <c r="D34" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" s="4" t="s">
-        <v>62</v>
+      <c r="D35" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>64</v>
+      <c r="C36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" s="4" t="s">
-        <v>65</v>
+      <c r="D37" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="38">
       <c r="D38" s="3" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39">
-      <c r="C39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>68</v>
+      <c r="C39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
-      <c r="D40" s="4" t="s">
-        <v>70</v>
+      <c r="D40" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="41">
-      <c r="D41" s="4" t="s">
-        <v>71</v>
+      <c r="D41" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
-      <c r="C42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>73</v>
+      <c r="C42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="43">
-      <c r="D43" s="4" t="s">
-        <v>74</v>
+      <c r="D43" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="44">
-      <c r="D44" s="4" t="s">
-        <v>75</v>
+      <c r="D44" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45">
-      <c r="D45" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>78</v>
+      <c r="D45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="46">
-      <c r="D46" s="4" t="s">
-        <v>79</v>
+      <c r="D46" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="47">
-      <c r="C47" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>81</v>
+      <c r="C47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="48">
-      <c r="D48" s="4" t="s">
-        <v>82</v>
+      <c r="D48" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
-      <c r="D49" s="4" t="s">
-        <v>84</v>
+      <c r="D49" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
-      <c r="D50" s="4" t="s">
-        <v>85</v>
+      <c r="D50" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51">
-      <c r="D51" s="4" t="s">
-        <v>86</v>
+      <c r="D51" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="52">
-      <c r="D52" s="4" t="s">
-        <v>87</v>
+      <c r="D52" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1015,4 +1209,367 @@
   </hyperlinks>
   <drawing r:id="rId17"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="35.29"/>
+    <col customWidth="1" min="2" max="2" width="44.0"/>
+    <col customWidth="1" min="3" max="3" width="46.14"/>
+    <col customWidth="1" min="4" max="4" width="46.57"/>
+    <col customWidth="1" min="5" max="5" width="36.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E4"/>
+    <hyperlink r:id="rId2" ref="E7"/>
+    <hyperlink r:id="rId3" ref="E9"/>
+    <hyperlink r:id="rId4" ref="E10"/>
+    <hyperlink r:id="rId5" ref="E11"/>
+    <hyperlink r:id="rId6" ref="E12"/>
+    <hyperlink r:id="rId7" ref="E13"/>
+    <hyperlink r:id="rId8" ref="E14"/>
+    <hyperlink r:id="rId9" ref="E16"/>
+    <hyperlink r:id="rId10" ref="E17"/>
+    <hyperlink r:id="rId11" ref="E19"/>
+    <hyperlink r:id="rId12" ref="E22"/>
+    <hyperlink r:id="rId13" ref="E24"/>
+    <hyperlink r:id="rId14" ref="E29"/>
+    <hyperlink r:id="rId15" ref="E30"/>
+    <hyperlink r:id="rId16" ref="E31"/>
+    <hyperlink r:id="rId17" ref="E32"/>
+    <hyperlink r:id="rId18" ref="E36"/>
+    <hyperlink r:id="rId19" ref="E37"/>
+    <hyperlink r:id="rId20" ref="E38"/>
+    <hyperlink r:id="rId21" ref="E39"/>
+  </hyperlinks>
+  <drawing r:id="rId22"/>
+</worksheet>
 </file>
--- a/splunk_certification_path/Splunk Certification Details.xlsx
+++ b/splunk_certification_path/Splunk Certification Details.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YouTube\youtube\splunk_certification_path\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CB75D4-9A43-4CC4-B6B3-83EC10FCDCC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Splunk Fundamentals 1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Splunk Fundamentals 2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Splunk Fundamentals 3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Splunk Fundamentals 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Splunk Fundamentals 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Splunk Fundamentals 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Advanced Searching &amp; Reporting" sheetId="4" r:id="rId4"/>
+    <sheet name="Creating Dashboards with Splunk" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,113 +29,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="214">
-  <si>
-    <t xml:space="preserve">Course Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Related Certification Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course Modules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module Topics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Splunk Fundamentals 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Splunk Core Certified User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 1 – Introduction</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="295">
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Related Certification Name</t>
+  </si>
+  <si>
+    <t>Course Modules</t>
+  </si>
+  <si>
+    <t>Module Topics</t>
+  </si>
+  <si>
+    <t>Video Link</t>
+  </si>
+  <si>
+    <t>Splunk Fundamentals 1</t>
+  </si>
+  <si>
+    <t>Splunk Core Certified User</t>
+  </si>
+  <si>
+    <t>Module 1 – Introduction</t>
   </si>
   <si>
     <t xml:space="preserve">Overview of Buttercup Games Inc.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
+    <t>NA</t>
   </si>
   <si>
     <t xml:space="preserve">Splunk Core Certified 
 Power User </t>
   </si>
   <si>
-    <t xml:space="preserve">Module 2 – What is Splunk?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Splunk components</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/a-_LHJU07VU</t>
+    <t>Module 2 – What is Splunk?</t>
+  </si>
+  <si>
+    <t>Splunk components</t>
+  </si>
+  <si>
+    <t>https://youtu.be/a-_LHJU07VU</t>
   </si>
   <si>
     <t xml:space="preserve">Splunk Enterprise 
 Certified Admin </t>
   </si>
   <si>
-    <t xml:space="preserve">Installing Splunk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/EIagVwiJj60
+    <t>Installing Splunk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/EIagVwiJj60
 https://youtu.be/5R7ODikFd1Y
 https://youtu.be/sueqqSzjIHU
 https://youtu.be/dt4gR5AcMo0</t>
   </si>
   <si>
-    <t xml:space="preserve">Splunk Enterprise 
+    <t>Splunk Enterprise 
 Certified Architect</t>
   </si>
   <si>
-    <t xml:space="preserve">Getting data into Splunk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/JshI6JT60Rs
+    <t>Getting data into Splunk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/JshI6JT60Rs
 https://youtu.be/qROXrFGqWAU</t>
   </si>
   <si>
-    <t xml:space="preserve">Splunk Certified Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 3 – Introduction to Splunk's 
+    <t>Splunk Certified Developer</t>
+  </si>
+  <si>
+    <t>Module 3 – Introduction to Splunk's 
 User Interface</t>
   </si>
   <si>
-    <t xml:space="preserve">Understand the uses of Splunk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Splunk Enterprise 
+    <t>Understand the uses of Splunk</t>
+  </si>
+  <si>
+    <t>Splunk Enterprise 
 Security Certified Admin</t>
   </si>
   <si>
-    <t xml:space="preserve">Define Splunk Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/1lkhVN9DGJU</t>
+    <t>Define Splunk Apps</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1lkhVN9DGJU</t>
   </si>
   <si>
     <t xml:space="preserve">Splunk IT Service 
 Intelligence Certified Admin </t>
   </si>
   <si>
-    <t xml:space="preserve">Customizing your user settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Splunk Core Certified Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn basic navigation in Splunk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/Xms0DsuIfq0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 4 – Basic Searching</t>
+    <t>Customizing your user settings</t>
+  </si>
+  <si>
+    <t>Splunk Core Certified Consultant</t>
+  </si>
+  <si>
+    <t>Learn basic navigation in Splunk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Xms0DsuIfq0</t>
+  </si>
+  <si>
+    <t>Module 4 – Basic Searching</t>
   </si>
   <si>
     <t xml:space="preserve">Run basic searches
@@ -139,58 +146,58 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Set the time range of a search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identify the contents of search results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refine searches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use the timeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work with events</t>
+    <t>Set the time range of a search</t>
+  </si>
+  <si>
+    <t>Identify the contents of search results</t>
+  </si>
+  <si>
+    <t>Refine searches</t>
+  </si>
+  <si>
+    <t>Use the timeline</t>
+  </si>
+  <si>
+    <t>Work with events</t>
   </si>
   <si>
     <t xml:space="preserve">Control a search job
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Save search results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 5 – Using Fields in Searches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understand fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use fields in searches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use the fields sidebar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 6 – Search Language 
+    <t>Save search results</t>
+  </si>
+  <si>
+    <t>Module 5 – Using Fields in Searches</t>
+  </si>
+  <si>
+    <t>Understand fields</t>
+  </si>
+  <si>
+    <t>Use fields in searches</t>
+  </si>
+  <si>
+    <t>Use the fields sidebar</t>
+  </si>
+  <si>
+    <t>Module 6 – Search Language 
 Fundamentals</t>
   </si>
   <si>
-    <t xml:space="preserve">Review basic search commands and general search
+    <t>Review basic search commands and general search
 practices</t>
   </si>
   <si>
-    <t xml:space="preserve">Examine the search pipeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specify indexes in searches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use autocomplete and syntax highlighting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§ Use the following commands to perform searches:
+    <t>Examine the search pipeline</t>
+  </si>
+  <si>
+    <t>Specify indexes in searches</t>
+  </si>
+  <si>
+    <t>Use autocomplete and syntax highlighting</t>
+  </si>
+  <si>
+    <t>§ Use the following commands to perform searches:
 1. tables
 2. rename
 3. fields
@@ -198,17 +205,17 @@
 5. sort</t>
   </si>
   <si>
-    <t xml:space="preserve">Module 7 – Using Basic Transforming 
+    <t>Module 7 – Using Basic Transforming 
 Commands</t>
   </si>
   <si>
-    <t xml:space="preserve">The top command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The rare command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The stats command</t>
+    <t>The top command</t>
+  </si>
+  <si>
+    <t>The rare command</t>
+  </si>
+  <si>
+    <t>The stats command</t>
   </si>
   <si>
     <t xml:space="preserve">Module 8 – Creating Reports and 
@@ -220,13 +227,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://youtu.be/cdWXKBzPZ78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create reports that include visualizations such as charts and
+    <t>https://youtu.be/cdWXKBzPZ78</t>
+  </si>
+  <si>
+    <t>Edit reports</t>
+  </si>
+  <si>
+    <t>Create reports that include visualizations such as charts and
 tables</t>
   </si>
   <si>
@@ -234,185 +241,185 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Add a report to a dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit a dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 9 – Datasets and the 
+    <t>Add a report to a dashboard</t>
+  </si>
+  <si>
+    <t>Edit a dashboard</t>
+  </si>
+  <si>
+    <t>Module 9 – Datasets and the 
 Common Information Model</t>
   </si>
   <si>
-    <t xml:space="preserve">Naming conventions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are datasets?</t>
+    <t>Naming conventions</t>
+  </si>
+  <si>
+    <t>What are datasets?</t>
   </si>
   <si>
     <t xml:space="preserve">What is the Common Information Model (CIM)?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Module 10 – Creating and Using Lookups</t>
+    <t>Module 10 – Creating and Using Lookups</t>
   </si>
   <si>
     <t xml:space="preserve">Describe lookups </t>
   </si>
   <si>
-    <t xml:space="preserve">https://youtu.be/1IYezUcNGPY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a lookup file and create a lookup definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure an automatic lookup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 11 – Creating Scheduled Reports 
+    <t>https://youtu.be/1IYezUcNGPY</t>
+  </si>
+  <si>
+    <t>Create a lookup file and create a lookup definition</t>
+  </si>
+  <si>
+    <t>Configure an automatic lookup</t>
+  </si>
+  <si>
+    <t>Module 11 – Creating Scheduled Reports 
 and Alerts</t>
   </si>
   <si>
-    <t xml:space="preserve">Describe scheduled reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure scheduled reports</t>
+    <t>Describe scheduled reports</t>
+  </si>
+  <si>
+    <t>Configure scheduled reports</t>
   </si>
   <si>
     <t xml:space="preserve">Describe alerts
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://youtu.be/kZ5FRXlGsHk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create alerts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/fXrva45eYFk
+    <t>https://youtu.be/kZ5FRXlGsHk</t>
+  </si>
+  <si>
+    <t>Create alerts</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fXrva45eYFk
 https://youtu.be/bcVfgaZLHjk</t>
   </si>
   <si>
-    <t xml:space="preserve">View fired alerts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 12 - Using Pivot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe Pivot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understand the relationship between data models and pivot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/N3FL6rawDLQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select a data model object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a pivot report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create an instant pivot from a search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add a pivot report to a dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Splunk Fundamentals 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Splunk Core Certified Power User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overview of Buttercup Games Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 2 – Beyond Search Fundamentals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search fundamentals review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case sensitivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the job inspector to view search performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 3 – Using Transforming Commands for 
+    <t>View fired alerts</t>
+  </si>
+  <si>
+    <t>Module 12 - Using Pivot</t>
+  </si>
+  <si>
+    <t>Describe Pivot</t>
+  </si>
+  <si>
+    <t>Understand the relationship between data models and pivot</t>
+  </si>
+  <si>
+    <t>https://youtu.be/N3FL6rawDLQ</t>
+  </si>
+  <si>
+    <t>Select a data model object</t>
+  </si>
+  <si>
+    <t>Create a pivot report</t>
+  </si>
+  <si>
+    <t>Create an instant pivot from a search</t>
+  </si>
+  <si>
+    <t>Add a pivot report to a dashboard</t>
+  </si>
+  <si>
+    <t>Splunk Fundamentals 2</t>
+  </si>
+  <si>
+    <t>Splunk Core Certified Power User</t>
+  </si>
+  <si>
+    <t>Overview of Buttercup Games Inc.</t>
+  </si>
+  <si>
+    <t>Lab environment</t>
+  </si>
+  <si>
+    <t>Module 2 – Beyond Search Fundamentals</t>
+  </si>
+  <si>
+    <t>Search fundamentals review</t>
+  </si>
+  <si>
+    <t>Case sensitivity</t>
+  </si>
+  <si>
+    <t>Using the job inspector to view search performance</t>
+  </si>
+  <si>
+    <t>Module 3 – Using Transforming Commands for 
 Visualizations</t>
   </si>
   <si>
-    <t xml:space="preserve">Explore data structure requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explore visualization types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create and format charts and timecharts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 4 – Using Mapping and Single Value 
+    <t>Explore data structure requirements</t>
+  </si>
+  <si>
+    <t>Explore visualization types</t>
+  </si>
+  <si>
+    <t>Create and format charts and timecharts</t>
+  </si>
+  <si>
+    <t>Module 4 – Using Mapping and Single Value 
 Commands</t>
   </si>
   <si>
-    <t xml:space="preserve">The iplocation command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The geostats command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/_XosRgjd-KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The geom command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The addtotals command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/HLSgBeqBlkk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 5 –Filtering and Formatting Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The eval command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/ZkMeeFjDiPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the search and where commands to filter results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The filnull command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 6 – Correlating Events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identify transactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group events using fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group events using fields and time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search with transactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report on transactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determine when to use transactions vs. stats</t>
+    <t>The iplocation command</t>
+  </si>
+  <si>
+    <t>The geostats command</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_XosRgjd-KI</t>
+  </si>
+  <si>
+    <t>The geom command</t>
+  </si>
+  <si>
+    <t>The addtotals command</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HLSgBeqBlkk</t>
+  </si>
+  <si>
+    <t>Module 5 –Filtering and Formatting Results</t>
+  </si>
+  <si>
+    <t>The eval command</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZkMeeFjDiPM</t>
+  </si>
+  <si>
+    <t>Using the search and where commands to filter results</t>
+  </si>
+  <si>
+    <t>The filnull command</t>
+  </si>
+  <si>
+    <t>Module 6 – Correlating Events</t>
+  </si>
+  <si>
+    <t>Identify transactions</t>
+  </si>
+  <si>
+    <t>Group events using fields</t>
+  </si>
+  <si>
+    <t>Group events using fields and time</t>
+  </si>
+  <si>
+    <t>Search with transactions</t>
+  </si>
+  <si>
+    <t>Report on transactions</t>
+  </si>
+  <si>
+    <t>Determine when to use transactions vs. stats</t>
   </si>
   <si>
     <t xml:space="preserve">Module 7 – Introduction to Knowledge Objects </t>
@@ -514,269 +521,490 @@
     <t xml:space="preserve">Use the CIM Add-On to normalize data </t>
   </si>
   <si>
-    <t xml:space="preserve">Splunk Fundamentals 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 1 – Exploring Statistical Commands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performing statistical analysis with functions 
+    <t>Splunk Fundamentals 3</t>
+  </si>
+  <si>
+    <t>Module 1 – Exploring Statistical Commands</t>
+  </si>
+  <si>
+    <t>Performing statistical analysis with functions 
 of the stat command</t>
   </si>
   <si>
-    <t xml:space="preserve">Using fieldsummary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/yFn5B7Y2miU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using appendpipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/Vjg2UMDuvnA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using eventstats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/oD2PIjtLv74
+    <t>Using fieldsummary</t>
+  </si>
+  <si>
+    <t>https://youtu.be/yFn5B7Y2miU</t>
+  </si>
+  <si>
+    <t>Using appendpipe</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Vjg2UMDuvnA</t>
+  </si>
+  <si>
+    <t>Using eventstats</t>
+  </si>
+  <si>
+    <t>https://youtu.be/oD2PIjtLv74
 https://youtu.be/VbdewD-JBr0</t>
   </si>
   <si>
-    <t xml:space="preserve">Using streamstats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 2 – Exploring eval Command Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using conversion functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using data and time functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using string functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using comparison and conditional functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using informational functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using statistical functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using mathematical functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using cryptographic functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 3 – Exploring Lookups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Including and excluding events based on lookup values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using KV Store lookups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using external lookups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/DXb5p_EQb_E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using geospatial lookups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/qj3z7TrBDG0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using database lookups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/ipi3wJThDic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understanding best practices for lookups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 4 – Exploring Alerts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referencing lookups in alerts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outputting alert results to a lookup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/r8g9kRFKvio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logging and indexing searchable alert events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using a webhook alert action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/IBgwfJMsXhw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 5 – Advanced Field Creation and Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using regex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/LDZ0PKSiuow
+    <t>Using streamstats</t>
+  </si>
+  <si>
+    <t>Module 2 – Exploring eval Command Functions</t>
+  </si>
+  <si>
+    <t>Using conversion functions</t>
+  </si>
+  <si>
+    <t>Using data and time functions</t>
+  </si>
+  <si>
+    <t>Using string functions</t>
+  </si>
+  <si>
+    <t>Using comparison and conditional functions</t>
+  </si>
+  <si>
+    <t>Using informational functions</t>
+  </si>
+  <si>
+    <t>Using statistical functions</t>
+  </si>
+  <si>
+    <t>Using mathematical functions</t>
+  </si>
+  <si>
+    <t>Using cryptographic functions</t>
+  </si>
+  <si>
+    <t>Module 3 – Exploring Lookups</t>
+  </si>
+  <si>
+    <t>Including and excluding events based on lookup values</t>
+  </si>
+  <si>
+    <t>Using KV Store lookups</t>
+  </si>
+  <si>
+    <t>Using external lookups</t>
+  </si>
+  <si>
+    <t>https://youtu.be/DXb5p_EQb_E</t>
+  </si>
+  <si>
+    <t>Using geospatial lookups</t>
+  </si>
+  <si>
+    <t>https://youtu.be/qj3z7TrBDG0</t>
+  </si>
+  <si>
+    <t>Using database lookups</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ipi3wJThDic</t>
+  </si>
+  <si>
+    <t>Understanding best practices for lookups</t>
+  </si>
+  <si>
+    <t>Module 4 – Exploring Alerts</t>
+  </si>
+  <si>
+    <t>Referencing lookups in alerts</t>
+  </si>
+  <si>
+    <t>Outputting alert results to a lookup</t>
+  </si>
+  <si>
+    <t>https://youtu.be/r8g9kRFKvio</t>
+  </si>
+  <si>
+    <t>Logging and indexing searchable alert events</t>
+  </si>
+  <si>
+    <t>Using a webhook alert action</t>
+  </si>
+  <si>
+    <t>https://youtu.be/IBgwfJMsXhw</t>
+  </si>
+  <si>
+    <t>Module 5 – Advanced Field Creation and Management</t>
+  </si>
+  <si>
+    <t>Using regex</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LDZ0PKSiuow
 https://youtu.be/ppSxpzK2sj8</t>
   </si>
   <si>
-    <t xml:space="preserve">Using the erex command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the rex command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifying regex best practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 6 – Working with Self-Describing Data and Files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the spath command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/C3k_v0lzmaM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the eval command with the spath function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracting fields from table-formatted events with multikv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/8kWgDVZZ0GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 7 – Advanced Search Macros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using nested search macros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/g4v9YZ0sPBE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previewing search macros before executing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using tags and event types in search macros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 8 – Using Acceleration Options: Reports and 
+    <t>Using the erex command</t>
+  </si>
+  <si>
+    <t>Using the rex command</t>
+  </si>
+  <si>
+    <t>Identifying regex best practices</t>
+  </si>
+  <si>
+    <t>Module 6 – Working with Self-Describing Data and Files</t>
+  </si>
+  <si>
+    <t>Using the spath command</t>
+  </si>
+  <si>
+    <t>https://youtu.be/C3k_v0lzmaM</t>
+  </si>
+  <si>
+    <t>Using the eval command with the spath function</t>
+  </si>
+  <si>
+    <t>Extracting fields from table-formatted events with multikv</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8kWgDVZZ0GQ</t>
+  </si>
+  <si>
+    <t>Module 7 – Advanced Search Macros</t>
+  </si>
+  <si>
+    <t>Using nested search macros</t>
+  </si>
+  <si>
+    <t>https://youtu.be/g4v9YZ0sPBE</t>
+  </si>
+  <si>
+    <t>Previewing search macros before executing</t>
+  </si>
+  <si>
+    <t>Using tags and event types in search macros</t>
+  </si>
+  <si>
+    <t>Module 8 – Using Acceleration Options: Reports and 
 Summary Indexing</t>
   </si>
   <si>
-    <t xml:space="preserve">Using report acceleration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using summary indexing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/joZ3jokt9qs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 9 – Using Acceleration Options: Data Models 
+    <t>Using report acceleration</t>
+  </si>
+  <si>
+    <t>Using summary indexing</t>
+  </si>
+  <si>
+    <t>https://youtu.be/joZ3jokt9qs</t>
+  </si>
+  <si>
+    <t>Module 9 – Using Acceleration Options: Data Models 
 and tsidx Files</t>
   </si>
   <si>
-    <t xml:space="preserve">Exploring data models using the datamodel command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using data model acceleration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working with tsidx files using the tstats command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/NLPlIiHS1OU</t>
+    <t>Exploring data models using the datamodel command</t>
+  </si>
+  <si>
+    <t>Using data model acceleration</t>
+  </si>
+  <si>
+    <t>Working with tsidx files using the tstats command</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NLPlIiHS1OU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RXvW8s5r_AY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/vDD8PXgCkJs</t>
+  </si>
+  <si>
+    <t>Advanced Searching &amp; Reporting</t>
+  </si>
+  <si>
+    <t>Module 1 – Using Search Efficiently</t>
+  </si>
+  <si>
+    <t>Review search architecture</t>
+  </si>
+  <si>
+    <t>Understand how the components of a bucket (.tsidx and journal.gz files) are used</t>
+  </si>
+  <si>
+    <t>How bloom filters are used to improve search speed</t>
+  </si>
+  <si>
+    <t>Describe the parts of a search string</t>
+  </si>
+  <si>
+    <t>Understand the use of centralized vs. distributable commands</t>
+  </si>
+  <si>
+    <t>Create better searches</t>
+  </si>
+  <si>
+    <t>Module 2 – More Search Tuning</t>
+  </si>
+  <si>
+    <t>Understand how segmenters are used in Splunk</t>
+  </si>
+  <si>
+    <t>Use lispy to reduce the number of events read from disk</t>
+  </si>
+  <si>
+    <t>Module 3 – Manipulating and Filtering Data</t>
+  </si>
+  <si>
+    <t>Divide search results into different groups, based on values in a specified field, using the bin command</t>
+  </si>
+  <si>
+    <t>Regroup fields of search results using untable and xyseries</t>
+  </si>
+  <si>
+    <t>Create a template for performing additional processing on a set of related fields using foreach</t>
+  </si>
+  <si>
+    <t>Module 4 – Working with Multivalue Fields</t>
+  </si>
+  <si>
+    <t>https://youtu.be/eXrDkeuqv7E</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gSXiKQ8rSoc</t>
+  </si>
+  <si>
+    <t>Use multivalue eval functions to analyze and format data</t>
+  </si>
+  <si>
+    <t>Use the makemv command to convert a single value into a multivalue field</t>
+  </si>
+  <si>
+    <t>Use the mvexpand command to create separate events for each value in a multivalue field</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BXny86438tY</t>
+  </si>
+  <si>
+    <t>Module 5 – Using Advanced Transactions</t>
+  </si>
+  <si>
+    <t>Find events logged before or after a particular event occurs</t>
+  </si>
+  <si>
+    <t>Compare complete vs. incomplete transactions</t>
+  </si>
+  <si>
+    <t>Analyze transactions</t>
+  </si>
+  <si>
+    <t>https://youtu.be/l8eqeT68R9U</t>
+  </si>
+  <si>
+    <t>Module 6 – Working with Time</t>
+  </si>
+  <si>
+    <t>Use time modifiers</t>
+  </si>
+  <si>
+    <t>Search for events using custom time ranges and time windows</t>
+  </si>
+  <si>
+    <t>Display and use using relative dates</t>
+  </si>
+  <si>
+    <t>Use custom time ranges in multiple subsearches</t>
+  </si>
+  <si>
+    <t>Module 7 – Combining Searches</t>
+  </si>
+  <si>
+    <t>Use the append and appendcols commands (and know the differences)</t>
+  </si>
+  <si>
+    <t>Use join and union (and when not to use them)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/lUL2fRAghRM</t>
+  </si>
+  <si>
+    <t>Module 8 – Using Subsearches</t>
+  </si>
+  <si>
+    <t>Use subsearches to provide filtering and other information to a main search</t>
+  </si>
+  <si>
+    <t>Know when NOT to use subsearches</t>
+  </si>
+  <si>
+    <t>Troubleshoot subsearches</t>
+  </si>
+  <si>
+    <t>https://youtu.be/TiwKp-T56xQ</t>
+  </si>
+  <si>
+    <t>Module 9 – Some Extra Tips</t>
+  </si>
+  <si>
+    <t>Describe the use of regular expressions</t>
+  </si>
+  <si>
+    <t>Provide some guidance on using lookups</t>
+  </si>
+  <si>
+    <t>Provide miscellaneous optimization tips</t>
+  </si>
+  <si>
+    <t>Creating Dashboards with Splunk</t>
+  </si>
+  <si>
+    <t>Module 1 – Creating a Prototype</t>
+  </si>
+  <si>
+    <t>Define simple syntax for views</t>
+  </si>
+  <si>
+    <t>Use best practices for creating views</t>
+  </si>
+  <si>
+    <t>Identify transforming commands</t>
+  </si>
+  <si>
+    <t>Troubleshoot views</t>
+  </si>
+  <si>
+    <t>Module 2 – Using Forms</t>
+  </si>
+  <si>
+    <t>Explain how tokens work</t>
+  </si>
+  <si>
+    <t>Use tokens with form inputs</t>
+  </si>
+  <si>
+    <t>Create cascading inputs</t>
+  </si>
+  <si>
+    <t>Define types of token filters</t>
+  </si>
+  <si>
+    <t>Module 3 – Improving Performance</t>
+  </si>
+  <si>
+    <t>Identify ways to improve dashboard performance</t>
+  </si>
+  <si>
+    <t>Accelerate data models</t>
+  </si>
+  <si>
+    <t>Use the tstats command</t>
+  </si>
+  <si>
+    <t>Create global searches</t>
+  </si>
+  <si>
+    <t>Module 4 – Customizing Dashboards</t>
+  </si>
+  <si>
+    <t>Customize chart and panel properties</t>
+  </si>
+  <si>
+    <t>Set panel refresh and delay times</t>
+  </si>
+  <si>
+    <t>Disable search access features</t>
+  </si>
+  <si>
+    <t>Define event annotations</t>
+  </si>
+  <si>
+    <t>Module 5 – Using Drilldowns</t>
+  </si>
+  <si>
+    <t>Define types of drilldowns</t>
+  </si>
+  <si>
+    <t>Identify predefined tokens</t>
+  </si>
+  <si>
+    <t>Create dynamic drilldowns</t>
+  </si>
+  <si>
+    <t>https://youtu.be/iNXj1uWTQes</t>
+  </si>
+  <si>
+    <t>Module 6 – Adding Advanced Behaviors &amp; Visualizations</t>
+  </si>
+  <si>
+    <t>Identify types of event handlers</t>
+  </si>
+  <si>
+    <t>Describe event actions</t>
+  </si>
+  <si>
+    <t>Create contextual drilldowns</t>
+  </si>
+  <si>
+    <t>Use simple XML extensions</t>
+  </si>
+  <si>
+    <t>Define Splunk Custom Visualizations</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wQvWEbv1LXg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_-PYMVRG9to
+https://youtu.be/Z6k4jNUEXO0
+https://youtu.be/hKJdNWtoz_o
+https://youtu.be/O_SogkHGD_U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF303030"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -795,7 +1023,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -803,81 +1031,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -936,33 +1127,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF303030"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="61.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,7 +1478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -996,7 +1495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1021,7 +1520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1043,7 +1542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -1054,7 +1553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1062,7 +1561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1073,7 +1572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1081,47 +1580,47 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
@@ -1129,17 +1628,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C22" s="4" t="s">
         <v>45</v>
       </c>
@@ -1147,27 +1646,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D24" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D25" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="3:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="D26" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="3:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C27" s="4" t="s">
         <v>51</v>
       </c>
@@ -1175,17 +1674,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D28" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D29" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="3:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
@@ -1196,7 +1695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D31" s="3" t="s">
         <v>58</v>
       </c>
@@ -1204,7 +1703,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D32" s="4" t="s">
         <v>59</v>
       </c>
@@ -1212,7 +1711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D33" s="4" t="s">
         <v>60</v>
       </c>
@@ -1220,7 +1719,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D34" s="3" t="s">
         <v>61</v>
       </c>
@@ -1228,7 +1727,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D35" s="3" t="s">
         <v>62</v>
       </c>
@@ -1236,7 +1735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C36" s="4" t="s">
         <v>63</v>
       </c>
@@ -1244,17 +1743,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D37" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D38" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C39" s="3" t="s">
         <v>67</v>
       </c>
@@ -1265,12 +1764,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D40" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D41" s="3" t="s">
         <v>71</v>
       </c>
@@ -1278,7 +1777,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="3:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C42" s="4" t="s">
         <v>72</v>
       </c>
@@ -1286,12 +1785,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D43" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D44" s="4" t="s">
         <v>75</v>
       </c>
@@ -1299,7 +1798,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D45" s="3" t="s">
         <v>77</v>
       </c>
@@ -1307,12 +1806,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D46" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C47" s="3" t="s">
         <v>80</v>
       </c>
@@ -1320,7 +1819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D48" s="3" t="s">
         <v>82</v>
       </c>
@@ -1328,7 +1827,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="4:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D49" s="3" t="s">
         <v>84</v>
       </c>
@@ -1336,7 +1835,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="4:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D50" s="3" t="s">
         <v>85</v>
       </c>
@@ -1344,12 +1843,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="4:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D51" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="4:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D52" s="3" t="s">
         <v>87</v>
       </c>
@@ -1359,57 +1858,48 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://youtu.be/a-_LHJU07VU"/>
-    <hyperlink ref="E7" r:id="rId2" display="https://youtu.be/1lkhVN9DGJU"/>
-    <hyperlink ref="E9" r:id="rId3" display="https://youtu.be/Xms0DsuIfq0"/>
-    <hyperlink ref="E30" r:id="rId4" display="https://youtu.be/cdWXKBzPZ78"/>
-    <hyperlink ref="E31" r:id="rId5" display="https://youtu.be/cdWXKBzPZ78"/>
-    <hyperlink ref="E32" r:id="rId6" display="https://youtu.be/cdWXKBzPZ78"/>
-    <hyperlink ref="E33" r:id="rId7" display="https://youtu.be/cdWXKBzPZ78"/>
-    <hyperlink ref="E34" r:id="rId8" display="https://youtu.be/cdWXKBzPZ78"/>
-    <hyperlink ref="E35" r:id="rId9" display="https://youtu.be/cdWXKBzPZ78"/>
-    <hyperlink ref="E39" r:id="rId10" display="https://youtu.be/1IYezUcNGPY"/>
-    <hyperlink ref="E41" r:id="rId11" display="https://youtu.be/1IYezUcNGPY"/>
-    <hyperlink ref="E44" r:id="rId12" display="https://youtu.be/kZ5FRXlGsHk"/>
-    <hyperlink ref="E48" r:id="rId13" display="https://youtu.be/N3FL6rawDLQ"/>
-    <hyperlink ref="E49" r:id="rId14" display="https://youtu.be/N3FL6rawDLQ"/>
-    <hyperlink ref="E50" r:id="rId15" display="https://youtu.be/N3FL6rawDLQ"/>
-    <hyperlink ref="E52" r:id="rId16" display="https://youtu.be/N3FL6rawDLQ"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E30" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E31" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E32" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E33" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E34" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E35" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E39" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E41" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E44" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E48" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E49" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E50" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E52" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -1440,12 +1930,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>92</v>
       </c>
@@ -1453,17 +1943,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="8" t="s">
         <v>96</v>
       </c>
@@ -1471,17 +1961,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="28.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="8" t="s">
         <v>100</v>
       </c>
@@ -1489,7 +1979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>102</v>
       </c>
@@ -1497,7 +1987,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
         <v>104</v>
       </c>
@@ -1505,7 +1995,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
         <v>105</v>
       </c>
@@ -1513,7 +2003,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
         <v>107</v>
       </c>
@@ -1524,17 +2014,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="3:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
         <v>112</v>
       </c>
@@ -1542,32 +2032,32 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="3:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="3:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="3:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="3:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="9" t="s">
         <v>119</v>
       </c>
@@ -1575,17 +2065,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="3:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="9" t="s">
         <v>123</v>
       </c>
@@ -1593,12 +2083,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="9" t="s">
         <v>126</v>
       </c>
@@ -1606,12 +2096,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="9" t="s">
         <v>129</v>
       </c>
@@ -1619,63 +2109,84 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="9" t="s">
         <v>133</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D36" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E36" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="9" t="s">
         <v>138</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D38" s="9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="9" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="9" t="s">
         <v>143</v>
       </c>
@@ -1683,22 +2194,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D42" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D44" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="3:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="9" t="s">
         <v>148</v>
       </c>
@@ -1706,55 +2217,47 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="3:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D46" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D47" s="9" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="https://youtu.be/_XosRgjd-KI"/>
-    <hyperlink ref="E12" r:id="rId2" display="https://youtu.be/_XosRgjd-KI"/>
-    <hyperlink ref="E13" r:id="rId3" display="https://youtu.be/HLSgBeqBlkk"/>
-    <hyperlink ref="E14" r:id="rId4" display="https://youtu.be/ZkMeeFjDiPM"/>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="6" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +2274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -1785,7 +2288,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
         <v>155</v>
       </c>
@@ -1793,7 +2296,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
         <v>157</v>
       </c>
@@ -1801,7 +2304,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
         <v>159</v>
       </c>
@@ -1809,7 +2312,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
         <v>161</v>
       </c>
@@ -1817,7 +2320,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
         <v>162</v>
       </c>
@@ -1828,12 +2331,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
         <v>165</v>
       </c>
@@ -1841,7 +2344,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>166</v>
       </c>
@@ -1849,7 +2352,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>167</v>
       </c>
@@ -1857,7 +2360,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
         <v>168</v>
       </c>
@@ -1865,7 +2368,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
         <v>169</v>
       </c>
@@ -1873,7 +2376,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
         <v>170</v>
       </c>
@@ -1881,7 +2384,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
         <v>171</v>
       </c>
@@ -1889,7 +2392,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
         <v>173</v>
       </c>
@@ -1897,7 +2400,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
         <v>174</v>
       </c>
@@ -1905,7 +2408,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>176</v>
       </c>
@@ -1913,7 +2416,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>178</v>
       </c>
@@ -1921,12 +2424,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
         <v>181</v>
       </c>
@@ -1934,7 +2437,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
         <v>183</v>
       </c>
@@ -1942,12 +2445,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D24" s="3" t="s">
         <v>186</v>
       </c>
@@ -1955,7 +2458,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C25" s="3" t="s">
         <v>188</v>
       </c>
@@ -1966,7 +2469,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D26" s="3" t="s">
         <v>191</v>
       </c>
@@ -1974,7 +2477,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D27" s="3" t="s">
         <v>192</v>
       </c>
@@ -1982,12 +2485,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D28" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
         <v>194</v>
       </c>
@@ -1998,7 +2501,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D30" s="3" t="s">
         <v>197</v>
       </c>
@@ -2006,7 +2509,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D31" s="3" t="s">
         <v>198</v>
       </c>
@@ -2014,7 +2517,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C32" s="3" t="s">
         <v>200</v>
       </c>
@@ -2025,17 +2528,17 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D33" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D34" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="3:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C35" s="8" t="s">
         <v>205</v>
       </c>
@@ -2043,7 +2546,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D36" s="3" t="s">
         <v>207</v>
       </c>
@@ -2051,7 +2554,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="3:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C37" s="8" t="s">
         <v>209</v>
       </c>
@@ -2062,7 +2565,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">
         <v>211</v>
       </c>
@@ -2070,7 +2573,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="3:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D39" s="3" t="s">
         <v>212</v>
       </c>
@@ -2080,36 +2583,466 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://youtu.be/yFn5B7Y2miU"/>
-    <hyperlink ref="E4" r:id="rId2" display="https://youtu.be/Vjg2UMDuvnA"/>
-    <hyperlink ref="E7" r:id="rId3" display="https://youtu.be/ZkMeeFjDiPM"/>
-    <hyperlink ref="E9" r:id="rId4" display="https://youtu.be/ZkMeeFjDiPM"/>
-    <hyperlink ref="E10" r:id="rId5" display="https://youtu.be/ZkMeeFjDiPM"/>
-    <hyperlink ref="E11" r:id="rId6" display="https://youtu.be/ZkMeeFjDiPM"/>
-    <hyperlink ref="E12" r:id="rId7" display="https://youtu.be/ZkMeeFjDiPM"/>
-    <hyperlink ref="E13" r:id="rId8" display="https://youtu.be/ZkMeeFjDiPM"/>
-    <hyperlink ref="E14" r:id="rId9" display="https://youtu.be/ZkMeeFjDiPM"/>
-    <hyperlink ref="E16" r:id="rId10" display="https://youtu.be/1IYezUcNGPY"/>
-    <hyperlink ref="E17" r:id="rId11" display="https://youtu.be/DXb5p_EQb_E"/>
-    <hyperlink ref="E18" r:id="rId12" display="https://youtu.be/qj3z7TrBDG0"/>
-    <hyperlink ref="E19" r:id="rId13" display="https://youtu.be/ipi3wJThDic"/>
-    <hyperlink ref="E22" r:id="rId14" display="https://youtu.be/r8g9kRFKvio"/>
-    <hyperlink ref="E24" r:id="rId15" display="https://youtu.be/IBgwfJMsXhw"/>
-    <hyperlink ref="E29" r:id="rId16" display="https://youtu.be/C3k_v0lzmaM"/>
-    <hyperlink ref="E30" r:id="rId17" display="https://youtu.be/C3k_v0lzmaM"/>
-    <hyperlink ref="E31" r:id="rId18" display="https://youtu.be/8kWgDVZZ0GQ"/>
-    <hyperlink ref="E32" r:id="rId19" display="https://youtu.be/g4v9YZ0sPBE"/>
-    <hyperlink ref="E36" r:id="rId20" display="https://youtu.be/joZ3jokt9qs"/>
-    <hyperlink ref="E37" r:id="rId21" display="https://youtu.be/N3FL6rawDLQ"/>
-    <hyperlink ref="E38" r:id="rId22" display="https://youtu.be/N3FL6rawDLQ"/>
-    <hyperlink ref="E39" r:id="rId23" display="https://youtu.be/NLPlIiHS1OU"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E12" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E14" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="E16" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="E17" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="E18" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="E19" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="E22" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="E24" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="E29" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="E30" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="E31" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="E32" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="E36" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="E37" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="E38" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="E39" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF692EA-9281-446C-8B1C-1D5A4C96FC8A}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D3" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D12" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D14" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D15" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE5E0D2-D91E-449A-BF17-97A4D52416E7}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="40.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C21" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/splunk_certification_path/Splunk Certification Details.xlsx
+++ b/splunk_certification_path/Splunk Certification Details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YouTube\youtube\splunk_certification_path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CB75D4-9A43-4CC4-B6B3-83EC10FCDCC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA1F626-3743-43BD-8C9D-E379C20E4453}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Splunk Fundamentals 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Splunk Fundamentals 3" sheetId="3" r:id="rId3"/>
     <sheet name="Advanced Searching &amp; Reporting" sheetId="4" r:id="rId4"/>
     <sheet name="Creating Dashboards with Splunk" sheetId="5" r:id="rId5"/>
+    <sheet name="Building Apps with Splunk" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="326">
   <si>
     <t>Course Name</t>
   </si>
@@ -956,6 +957,99 @@
 https://youtu.be/Z6k4jNUEXO0
 https://youtu.be/hKJdNWtoz_o
 https://youtu.be/O_SogkHGD_U</t>
+  </si>
+  <si>
+    <t>Building Apps with Splunk</t>
+  </si>
+  <si>
+    <t>Module 1 – Planning App Development</t>
+  </si>
+  <si>
+    <t>Create a development environment</t>
+  </si>
+  <si>
+    <t>Improve app performance</t>
+  </si>
+  <si>
+    <t>Identify Splunk log files</t>
+  </si>
+  <si>
+    <t>Use security best practices</t>
+  </si>
+  <si>
+    <t>Create a data generator</t>
+  </si>
+  <si>
+    <t>Module 2 – Creating Apps</t>
+  </si>
+  <si>
+    <t>Define the web framework architecture</t>
+  </si>
+  <si>
+    <t>Identify ways to build Splunk apps</t>
+  </si>
+  <si>
+    <t>Manage apps and add-ons</t>
+  </si>
+  <si>
+    <t>Create an app</t>
+  </si>
+  <si>
+    <t>Configure app properties</t>
+  </si>
+  <si>
+    <t>Create app navigation</t>
+  </si>
+  <si>
+    <t>Module 3 – Adding Data</t>
+  </si>
+  <si>
+    <t>List types of data inputs</t>
+  </si>
+  <si>
+    <t>Identify ways to add data</t>
+  </si>
+  <si>
+    <t>Define when to use a scripted input</t>
+  </si>
+  <si>
+    <t>Create a modular input</t>
+  </si>
+  <si>
+    <t>Module 4 – Using the REST API</t>
+  </si>
+  <si>
+    <t>Explain how the Splunk REST API works</t>
+  </si>
+  <si>
+    <t>Define API endpoints</t>
+  </si>
+  <si>
+    <t>Explain how the KV Store works</t>
+  </si>
+  <si>
+    <t>Create a KV Store</t>
+  </si>
+  <si>
+    <t>Use lookups with a KV Store</t>
+  </si>
+  <si>
+    <t>Module 5 – Packaging Apps</t>
+  </si>
+  <si>
+    <t>Create an app setup screen</t>
+  </si>
+  <si>
+    <t>Define search time precedence</t>
+  </si>
+  <si>
+    <t>Explain local and default differences</t>
+  </si>
+  <si>
+    <t>Package an app</t>
+  </si>
+  <si>
+    <t>https://youtu.be/itBJ47So6tw</t>
   </si>
 </sst>
 </file>
@@ -2866,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE5E0D2-D91E-449A-BF17-97A4D52416E7}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3045,4 +3139,177 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30698D36-0225-42E0-8290-1D21A27A4DCB}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="57" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D17" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>